--- a/results/mp/tinybert/corona/confidence/168/desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/desired-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,172 +40,172 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>gt</t>
   </si>
   <si>
     <t>join</t>
@@ -214,76 +214,106 @@
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
     <t>our</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>_</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>with</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>is</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>for</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>a</t>
+    <t>?</t>
   </si>
   <si>
     <t>co</t>
@@ -292,7 +322,7 @@
     <t>corona</t>
   </si>
   <si>
-    <t>.</t>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -650,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -769,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -819,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -861,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -869,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9166666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -887,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.96875</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9166666666666666</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.9583333333333334</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -961,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8823529411764706</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.95</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8116883116883117</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C9">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="D9">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>29</v>
+        <v>337</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.9444444444444444</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,49 +1099,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>124</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>0.8732394366197183</v>
+      </c>
+      <c r="L10">
+        <v>124</v>
+      </c>
+      <c r="M10">
+        <v>124</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>18</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10">
-        <v>0.9375</v>
-      </c>
-      <c r="L10">
-        <v>15</v>
-      </c>
-      <c r="M10">
-        <v>15</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1119,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7142857142857143</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1137,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.8671875</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1161,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,49 +1199,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>316</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L12">
+        <v>104</v>
+      </c>
+      <c r="M12">
+        <v>104</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>16</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,37 +1249,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5665236051502146</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="C13">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>101</v>
+        <v>342</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1269,723 +1299,531 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4827586206896552</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>232</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.8627450980392157</v>
+      </c>
+      <c r="L14">
+        <v>44</v>
+      </c>
+      <c r="M14">
+        <v>44</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L15">
+        <v>31</v>
+      </c>
+      <c r="M15">
+        <v>31</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L16">
+        <v>23</v>
+      </c>
+      <c r="M16">
+        <v>23</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L17">
+        <v>23</v>
+      </c>
+      <c r="M17">
+        <v>23</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L18">
+        <v>33</v>
+      </c>
+      <c r="M18">
+        <v>33</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L19">
+        <v>69</v>
+      </c>
+      <c r="M19">
+        <v>69</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.8297872340425532</v>
+      </c>
+      <c r="L20">
+        <v>39</v>
+      </c>
+      <c r="M20">
+        <v>39</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.8207547169811321</v>
+      </c>
+      <c r="L21">
+        <v>87</v>
+      </c>
+      <c r="M21">
+        <v>87</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.79375</v>
+      </c>
+      <c r="L22">
+        <v>127</v>
+      </c>
+      <c r="M22">
+        <v>127</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L23">
+        <v>46</v>
+      </c>
+      <c r="M23">
+        <v>46</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.75</v>
+      </c>
+      <c r="L24">
+        <v>27</v>
+      </c>
+      <c r="M24">
+        <v>27</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.75</v>
+      </c>
+      <c r="L25">
+        <v>21</v>
+      </c>
+      <c r="M25">
+        <v>21</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.75</v>
+      </c>
+      <c r="L26">
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <v>21</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.7467362924281984</v>
+      </c>
+      <c r="L27">
+        <v>286</v>
+      </c>
+      <c r="M27">
+        <v>286</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L28">
+        <v>47</v>
+      </c>
+      <c r="M28">
+        <v>47</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.7352941176470589</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L31">
+        <v>34</v>
+      </c>
+      <c r="M31">
+        <v>34</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>14</v>
       </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>15</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L14">
-        <v>45</v>
-      </c>
-      <c r="M14">
-        <v>45</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L15">
-        <v>15</v>
-      </c>
-      <c r="M15">
-        <v>15</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="C16">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>29</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16">
-        <v>0.875</v>
-      </c>
-      <c r="L16">
-        <v>49</v>
-      </c>
-      <c r="M16">
-        <v>49</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>59</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>0.8703703703703703</v>
-      </c>
-      <c r="L17">
-        <v>47</v>
-      </c>
-      <c r="M17">
-        <v>47</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L32">
+        <v>66</v>
+      </c>
+      <c r="M32">
+        <v>66</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>28</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L18">
-        <v>44</v>
-      </c>
-      <c r="M18">
-        <v>44</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.25</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>60</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="L19">
-        <v>50</v>
-      </c>
-      <c r="M19">
-        <v>50</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="C20">
-        <v>26</v>
-      </c>
-      <c r="D20">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>84</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>0.8421052631578947</v>
-      </c>
-      <c r="L20">
-        <v>16</v>
-      </c>
-      <c r="M20">
-        <v>16</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2148148148148148</v>
-      </c>
-      <c r="C21">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>29</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>106</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>0.84</v>
-      </c>
-      <c r="L21">
-        <v>21</v>
-      </c>
-      <c r="M21">
-        <v>21</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.06989247311827956</v>
-      </c>
-      <c r="C22">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>173</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L22">
-        <v>14</v>
-      </c>
-      <c r="M22">
-        <v>14</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.8205128205128205</v>
-      </c>
-      <c r="L23">
-        <v>32</v>
-      </c>
-      <c r="M23">
-        <v>32</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.8</v>
-      </c>
-      <c r="L24">
-        <v>20</v>
-      </c>
-      <c r="M24">
-        <v>20</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25">
-        <v>0.7945205479452054</v>
-      </c>
-      <c r="L25">
-        <v>58</v>
-      </c>
-      <c r="M25">
-        <v>58</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L27">
-        <v>22</v>
-      </c>
-      <c r="M27">
-        <v>22</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="L28">
-        <v>25</v>
-      </c>
-      <c r="M28">
-        <v>25</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29">
-        <v>0.7370892018779343</v>
-      </c>
-      <c r="L29">
-        <v>157</v>
-      </c>
-      <c r="M29">
-        <v>157</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="L30">
-        <v>19</v>
-      </c>
-      <c r="M30">
-        <v>19</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31">
-        <v>0.7</v>
-      </c>
-      <c r="L31">
-        <v>21</v>
-      </c>
-      <c r="M31">
-        <v>21</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32">
-        <v>0.6847826086956522</v>
-      </c>
-      <c r="L32">
-        <v>63</v>
-      </c>
-      <c r="M32">
-        <v>63</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>29</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6589147286821705</v>
+        <v>0.68</v>
       </c>
       <c r="L33">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1997,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.65</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2023,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.6363636363636364</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2049,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.625</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="L36">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="M36">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2075,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.6071428571428571</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2101,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.6</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2127,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2153,21 +1991,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.5675675675675675</v>
+        <v>0.6</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2179,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2205,47 +2043,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.4857142857142857</v>
+        <v>0.575</v>
       </c>
       <c r="L42">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>17</v>
-      </c>
-      <c r="M42">
-        <v>17</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>18</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.4736842105263158</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2257,21 +2095,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.4516129032258064</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2283,21 +2121,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.2037037037037037</v>
+        <v>0.475</v>
       </c>
       <c r="L45">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2309,21 +2147,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.09022556390977443</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2335,21 +2173,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.07177033492822966</v>
+        <v>0.4375</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2361,21 +2199,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>194</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.0707070707070707</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2387,21 +2225,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>184</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.05868544600938967</v>
+        <v>0.1810344827586207</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2413,21 +2251,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>401</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.05609756097560976</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2439,21 +2277,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>387</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>0.04218362282878412</v>
+        <v>0.1028708133971292</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2465,73 +2303,73 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K52">
-        <v>0.03766816143497758</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="L52">
         <v>42</v>
       </c>
       <c r="M52">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N52">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1073</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K53">
-        <v>0.03296703296703297</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>440</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K54">
-        <v>0.03174603174603174</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2543,21 +2381,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>305</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K55">
-        <v>0.03153153153153153</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2569,293 +2407,761 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>430</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K56">
-        <v>0.02644230769230769</v>
+        <v>0.06967213114754098</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N56">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>810</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K57">
-        <v>0.02588996763754045</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M57">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>903</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K58">
-        <v>0.02402957486136784</v>
+        <v>0.05566801619433198</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>528</v>
+        <v>933</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K59">
-        <v>0.02323125659978881</v>
+        <v>0.05257270693512305</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="M59">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="N59">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>925</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K60">
-        <v>0.01726844583987441</v>
+        <v>0.05216426193118757</v>
       </c>
       <c r="L60">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N60">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>626</v>
+        <v>854</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K61">
-        <v>0.0171112229491696</v>
+        <v>0.04833333333333333</v>
       </c>
       <c r="L61">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="M61">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N61">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>1953</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K62">
-        <v>0.01490825688073395</v>
+        <v>0.04204753199268738</v>
       </c>
       <c r="L62">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N62">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>1718</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K63">
-        <v>0.01066098081023454</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="L63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M63">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N63">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>928</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K64">
-        <v>0.008991650610147719</v>
+        <v>0.04041570438799076</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M64">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N64">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1543</v>
+        <v>831</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K65">
-        <v>0.008788449466415568</v>
+        <v>0.03538461538461538</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N65">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1579</v>
+        <v>627</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K66">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="L66">
+        <v>80</v>
+      </c>
+      <c r="M66">
+        <v>85</v>
+      </c>
+      <c r="N66">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O66">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K67">
+        <v>0.03271028037383177</v>
+      </c>
+      <c r="L67">
+        <v>70</v>
+      </c>
+      <c r="M67">
+        <v>73</v>
+      </c>
+      <c r="N67">
+        <v>0.96</v>
+      </c>
+      <c r="O67">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K68">
+        <v>0.0311614730878187</v>
+      </c>
+      <c r="L68">
+        <v>22</v>
+      </c>
+      <c r="M68">
+        <v>24</v>
+      </c>
+      <c r="N68">
+        <v>0.92</v>
+      </c>
+      <c r="O68">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K69">
+        <v>0.02998500749625187</v>
+      </c>
+      <c r="L69">
+        <v>80</v>
+      </c>
+      <c r="M69">
+        <v>85</v>
+      </c>
+      <c r="N69">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O69">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K70">
+        <v>0.02954545454545454</v>
+      </c>
+      <c r="L70">
+        <v>26</v>
+      </c>
+      <c r="M70">
+        <v>28</v>
+      </c>
+      <c r="N70">
+        <v>0.93</v>
+      </c>
+      <c r="O70">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K71">
+        <v>0.02763819095477387</v>
+      </c>
+      <c r="L71">
+        <v>44</v>
+      </c>
+      <c r="M71">
+        <v>46</v>
+      </c>
+      <c r="N71">
+        <v>0.96</v>
+      </c>
+      <c r="O71">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K72">
+        <v>0.0227439471753485</v>
+      </c>
+      <c r="L72">
+        <v>31</v>
+      </c>
+      <c r="M72">
+        <v>31</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K73">
+        <v>0.0219409282700422</v>
+      </c>
+      <c r="L73">
+        <v>52</v>
+      </c>
+      <c r="M73">
+        <v>61</v>
+      </c>
+      <c r="N73">
+        <v>0.85</v>
+      </c>
+      <c r="O73">
+        <v>0.15</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K66">
-        <v>0.007310704960835509</v>
-      </c>
-      <c r="L66">
-        <v>14</v>
-      </c>
-      <c r="M66">
-        <v>15</v>
-      </c>
-      <c r="N66">
-        <v>0.93</v>
-      </c>
-      <c r="O66">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>1901</v>
+      <c r="K74">
+        <v>0.02144718380436961</v>
+      </c>
+      <c r="L74">
+        <v>107</v>
+      </c>
+      <c r="M74">
+        <v>114</v>
+      </c>
+      <c r="N74">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O74">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>4882</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K75">
+        <v>0.0212489158716392</v>
+      </c>
+      <c r="L75">
+        <v>49</v>
+      </c>
+      <c r="M75">
+        <v>52</v>
+      </c>
+      <c r="N75">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O75">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K76">
+        <v>0.02021174205967276</v>
+      </c>
+      <c r="L76">
+        <v>21</v>
+      </c>
+      <c r="M76">
+        <v>22</v>
+      </c>
+      <c r="N76">
+        <v>0.95</v>
+      </c>
+      <c r="O76">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K77">
+        <v>0.01977127350261679</v>
+      </c>
+      <c r="L77">
+        <v>102</v>
+      </c>
+      <c r="M77">
+        <v>108</v>
+      </c>
+      <c r="N77">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O77">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K78">
+        <v>0.01962809917355372</v>
+      </c>
+      <c r="L78">
+        <v>19</v>
+      </c>
+      <c r="M78">
+        <v>19</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K79">
+        <v>0.0187207488299532</v>
+      </c>
+      <c r="L79">
+        <v>24</v>
+      </c>
+      <c r="M79">
+        <v>31</v>
+      </c>
+      <c r="N79">
+        <v>0.77</v>
+      </c>
+      <c r="O79">
+        <v>0.23</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K80">
+        <v>0.01689814814814815</v>
+      </c>
+      <c r="L80">
+        <v>73</v>
+      </c>
+      <c r="M80">
+        <v>81</v>
+      </c>
+      <c r="N80">
+        <v>0.9</v>
+      </c>
+      <c r="O80">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K81">
+        <v>0.01337792642140468</v>
+      </c>
+      <c r="L81">
+        <v>32</v>
+      </c>
+      <c r="M81">
+        <v>34</v>
+      </c>
+      <c r="N81">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O81">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K82">
+        <v>0.01323007421748951</v>
+      </c>
+      <c r="L82">
+        <v>41</v>
+      </c>
+      <c r="M82">
+        <v>49</v>
+      </c>
+      <c r="N82">
+        <v>0.84</v>
+      </c>
+      <c r="O82">
+        <v>0.16</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K83">
+        <v>0.01127466332602568</v>
+      </c>
+      <c r="L83">
+        <v>36</v>
+      </c>
+      <c r="M83">
+        <v>44</v>
+      </c>
+      <c r="N83">
+        <v>0.82</v>
+      </c>
+      <c r="O83">
+        <v>0.18</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K84">
+        <v>0.01068276823037622</v>
+      </c>
+      <c r="L84">
+        <v>23</v>
+      </c>
+      <c r="M84">
+        <v>28</v>
+      </c>
+      <c r="N84">
+        <v>0.82</v>
+      </c>
+      <c r="O84">
+        <v>0.18</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>2130</v>
       </c>
     </row>
   </sheetData>
